--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676784.7075753097</v>
+        <v>674124.6072950147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11190823.99609508</v>
+        <v>11189511.94688904</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11816644.92326028</v>
+        <v>11816945.01211932</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -710,10 +710,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.4816193912807</v>
+        <v>221.9818015136039</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>89.57784400781627</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7787769293046</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>183.7702449963611</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>332.9810592212313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>22.5359063634549</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>2.635247959057727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>40.60912122590165</v>
       </c>
       <c r="C8" t="n">
-        <v>31.69116461527335</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.2397255529495</v>
+        <v>12.24364034742718</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1057308580344</v>
+        <v>308.1458232469789</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824744</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979421</v>
+        <v>139.3108928771022</v>
       </c>
       <c r="T8" t="n">
-        <v>209.6875146996641</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1006119508617</v>
+        <v>251.1009251344199</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.704661281745</v>
+        <v>135.7067558814507</v>
       </c>
       <c r="H9" t="n">
-        <v>96.40754664444712</v>
+        <v>96.42777606792036</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237113019</v>
+        <v>33.04322907152297</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2421419020536</v>
+        <v>141.2810481729024</v>
       </c>
       <c r="T9" t="n">
-        <v>193.5589894182125</v>
+        <v>193.5674321249209</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8335626150889</v>
+        <v>225.8337004177012</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>29.14042938246362</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1316988901466</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.93820418236522</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.1027954790071</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0750257228877</v>
+        <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>286.244085990039</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>66.37988577786886</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>272.5294138610349</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7415240061373</v>
+        <v>189.655441187015</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7712536040104</v>
+        <v>225.7698485525558</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842595</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>32.93069284114979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.55410938283653</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.8886059122779</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819397</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060159</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.73384166348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784684</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936172</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462258</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>55.47031642759361</v>
+        <v>225.7096553890392</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>220.6346102953137</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>43.73846614325582</v>
+        <v>99.97427419833929</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337062</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,16 +3241,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>245.8796921214437</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471656</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797029</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3687739767475</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>914.6502878797686</v>
       </c>
       <c r="F2" t="n">
-        <v>503.664383090161</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
         <v>490.6170053669925</v>
@@ -4328,22 +4328,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3115823537878</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M2" t="n">
-        <v>1341.029393337099</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N2" t="n">
-        <v>1968.337061396946</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P2" t="n">
         <v>2600.061856959047</v>
@@ -4358,22 +4358,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2225.139236222622</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V2" t="n">
-        <v>2225.139236222622</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W2" t="n">
-        <v>1872.370580952507</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X2" t="n">
-        <v>1498.904822691428</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="Y2" t="n">
-        <v>1300.438540478013</v>
+        <v>1687.038380542135</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K3" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029697</v>
       </c>
       <c r="L3" t="n">
-        <v>886.4908637115414</v>
+        <v>599.2575280293009</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.988200066146</v>
+        <v>778.7548643839058</v>
       </c>
       <c r="N3" t="n">
         <v>1430.928743686615</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.0328667648788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C4" t="n">
-        <v>291.0966838369719</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
         <v>52.70091953961285</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>714.7173549707657</v>
+        <v>856.8994626865288</v>
       </c>
       <c r="T4" t="n">
-        <v>714.7173549707657</v>
+        <v>631.2702659988937</v>
       </c>
       <c r="U4" t="n">
-        <v>714.7173549707657</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="V4" t="n">
-        <v>460.0328667648788</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W4" t="n">
-        <v>460.0328667648788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X4" t="n">
-        <v>460.0328667648788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.0328667648788</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1340.481123857273</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="C5" t="n">
-        <v>1340.481123857273</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="D5" t="n">
-        <v>982.2154252505225</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="E5" t="n">
-        <v>596.4271726522782</v>
+        <v>782.0536827496126</v>
       </c>
       <c r="F5" t="n">
-        <v>185.4412678626705</v>
+        <v>371.067777960005</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>358.0204002368365</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4571,19 +4571,19 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>295.8269799488417</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>927.5447909321535</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1554.852458992</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2102.013663759078</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2531.328710098372</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.291386382223</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W5" t="n">
-        <v>2050.291386382223</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X5" t="n">
-        <v>1676.825628121143</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="Y5" t="n">
-        <v>1340.481123857273</v>
+        <v>1167.841935347857</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>743.329530925984</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1383.874880393089</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.048759695798</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O6" t="n">
-        <v>2503.619408251367</v>
+        <v>2026.656273590505</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
         <v>52.70091953961285</v>
@@ -4750,25 +4750,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>827.0064043113226</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U7" t="n">
-        <v>827.0064043113226</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V7" t="n">
-        <v>827.0064043113226</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W7" t="n">
-        <v>824.3445376860118</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X7" t="n">
-        <v>596.3549867879944</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y7" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>912.6017151620533</v>
+        <v>752.2346580316585</v>
       </c>
       <c r="C8" t="n">
-        <v>880.5904377728883</v>
+        <v>383.2721410912468</v>
       </c>
       <c r="D8" t="n">
-        <v>880.5904377728883</v>
+        <v>383.2721410912468</v>
       </c>
       <c r="E8" t="n">
-        <v>880.5904377728883</v>
+        <v>383.2721410912468</v>
       </c>
       <c r="F8" t="n">
-        <v>873.6449370236849</v>
+        <v>376.3266403420433</v>
       </c>
       <c r="G8" t="n">
-        <v>457.2411738388874</v>
+        <v>363.9593268597936</v>
       </c>
       <c r="H8" t="n">
-        <v>146.0232638812769</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>298.2407414888369</v>
+        <v>130.5061518135619</v>
       </c>
       <c r="K8" t="n">
-        <v>603.0185294661235</v>
+        <v>618.7585027578361</v>
       </c>
       <c r="L8" t="n">
-        <v>848.1423762662065</v>
+        <v>863.270743467678</v>
       </c>
       <c r="M8" t="n">
-        <v>1152.559323584269</v>
+        <v>1473.703891435832</v>
       </c>
       <c r="N8" t="n">
-        <v>1466.515863746891</v>
+        <v>1786.968890298471</v>
       </c>
       <c r="O8" t="n">
-        <v>1749.640860615674</v>
+        <v>2069.440884327485</v>
       </c>
       <c r="P8" t="n">
-        <v>2275.361215345688</v>
+        <v>2276.023195151741</v>
       </c>
       <c r="Q8" t="n">
-        <v>2592.933547824439</v>
+        <v>2593.177001405962</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.418012841307</v>
+        <v>2494.327903367408</v>
       </c>
       <c r="T8" t="n">
-        <v>2282.612442437606</v>
+        <v>2494.327903367408</v>
       </c>
       <c r="U8" t="n">
-        <v>2028.975460669059</v>
+        <v>2240.690605251832</v>
       </c>
       <c r="V8" t="n">
-        <v>2028.975460669059</v>
+        <v>1909.627717908262</v>
       </c>
       <c r="W8" t="n">
-        <v>1676.206805398945</v>
+        <v>1556.859062638148</v>
       </c>
       <c r="X8" t="n">
-        <v>1302.741047137865</v>
+        <v>1183.393304377068</v>
       </c>
       <c r="Y8" t="n">
-        <v>912.6017151620533</v>
+        <v>793.2539724012561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.6213010538166</v>
+        <v>949.716695724091</v>
       </c>
       <c r="C9" t="n">
-        <v>775.1682717726896</v>
+        <v>775.263666442964</v>
       </c>
       <c r="D9" t="n">
-        <v>626.2338621114384</v>
+        <v>626.3292567817127</v>
       </c>
       <c r="E9" t="n">
-        <v>466.9964071059828</v>
+        <v>467.0918017762572</v>
       </c>
       <c r="F9" t="n">
-        <v>320.4618491328678</v>
+        <v>320.5572438031422</v>
       </c>
       <c r="G9" t="n">
-        <v>183.3864336967617</v>
+        <v>183.4797126097576</v>
       </c>
       <c r="H9" t="n">
-        <v>86.00507344984537</v>
+        <v>86.07791860175726</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.2493756933894</v>
+        <v>80.22333590578216</v>
       </c>
       <c r="K9" t="n">
-        <v>592.5998279356118</v>
+        <v>205.4183539064718</v>
       </c>
       <c r="L9" t="n">
-        <v>944.89174809657</v>
+        <v>787.2129886388111</v>
       </c>
       <c r="M9" t="n">
-        <v>1597.065627399279</v>
+        <v>1439.38686794152</v>
       </c>
       <c r="N9" t="n">
-        <v>1889.014041936245</v>
+        <v>1730.795959709769</v>
       </c>
       <c r="O9" t="n">
-        <v>2133.870009286446</v>
+        <v>2344.229602133571</v>
       </c>
       <c r="P9" t="n">
-        <v>2311.055443725104</v>
+        <v>2521.019059663607</v>
       </c>
       <c r="Q9" t="n">
-        <v>2587.556532757877</v>
+        <v>2589.278933760978</v>
       </c>
       <c r="R9" t="n">
-        <v>2589.135572646088</v>
+        <v>2589.278933760978</v>
       </c>
       <c r="S9" t="n">
-        <v>2446.466742441994</v>
+        <v>2446.5708042934</v>
       </c>
       <c r="T9" t="n">
-        <v>2250.952611716526</v>
+        <v>2251.048145581359</v>
       </c>
       <c r="U9" t="n">
-        <v>2022.837902004316</v>
+        <v>2022.93329667459</v>
       </c>
       <c r="V9" t="n">
-        <v>1787.685793772573</v>
+        <v>1787.781188442847</v>
       </c>
       <c r="W9" t="n">
-        <v>1533.448437044371</v>
+        <v>1533.543831714646</v>
       </c>
       <c r="X9" t="n">
-        <v>1325.596936838838</v>
+        <v>1325.692331509113</v>
       </c>
       <c r="Y9" t="n">
-        <v>1117.836638073885</v>
+        <v>1117.932032744159</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>344.3101885250082</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>344.3101885250082</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>344.3101885250082</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>314.8754113710046</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>167.9854638730943</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9854638730943</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>167.9854638730943</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.44303377193371</v>
+        <v>56.32012312205275</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012941</v>
+        <v>192.104423096999</v>
       </c>
       <c r="L10" t="n">
-        <v>421.9713681763031</v>
+        <v>421.3880127696224</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438087</v>
+        <v>673.5245332424516</v>
       </c>
       <c r="N10" t="n">
-        <v>926.222332634062</v>
+        <v>925.1004272331232</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431828</v>
+        <v>1141.455188557397</v>
       </c>
       <c r="P10" t="n">
-        <v>1304.641274404483</v>
+        <v>1303.063381081419</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069301</v>
+        <v>1331.517436617903</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069301</v>
+        <v>1312.387937443797</v>
       </c>
       <c r="S10" t="n">
-        <v>1333.240904069301</v>
+        <v>1110.263901606416</v>
       </c>
       <c r="T10" t="n">
-        <v>1108.922696268404</v>
+        <v>885.9381149280664</v>
       </c>
       <c r="U10" t="n">
-        <v>819.7872558744252</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V10" t="n">
-        <v>565.1027676685384</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W10" t="n">
-        <v>565.1027676685384</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X10" t="n">
-        <v>565.1027676685384</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y10" t="n">
-        <v>344.3101885250082</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2042.23759082232</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1673.275073881909</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1176.993134082597</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>791.2048814843533</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194422</v>
+        <v>791.2048814843533</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>376.6294358140001</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592068</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706885</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464059</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345376</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345376</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.505408466905</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.442521123334</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>3192.442521123334</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2818.976762862254</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2428.837430886442</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5522947932185</v>
+        <v>941.5530399535777</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0992655120915</v>
+        <v>767.1000106724507</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1648558508402</v>
+        <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592068</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J12" t="n">
-        <v>84.53144813504377</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504377</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929952</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>990.4759064815387</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1531.784213832605</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2004.755766698354</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2365.024069538508</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.377995458575</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.478772117604</v>
+        <v>2434.391145691522</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.8206670609</v>
+        <v>2242.819992977365</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.768895743717</v>
+        <v>2014.769640904077</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.616787511975</v>
+        <v>1779.617532672334</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.379430783773</v>
+        <v>1525.380175944132</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.52793057824</v>
+        <v>1317.5286757386</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.767631813286</v>
+        <v>1109.768376973646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>385.5135230760931</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>216.5773401481862</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592068</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592068</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925583</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360023</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309474</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1513.497115207303</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.079945170342</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>1224.079945170342</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.287366026812</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1683.796643784373</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>177.2097135117733</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>177.2097135117733</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.2097135117733</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258107</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.82229605222</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.405126015259</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.754138832762</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048551</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925194</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101263</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122159</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5686,7 +5686,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5792,10 +5792,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290488</v>
+        <v>513.8536007400692</v>
       </c>
       <c r="C22" t="n">
-        <v>699.731180401142</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888062</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888062</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908958</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057758</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302819</v>
+        <v>916.2946447138389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159288</v>
+        <v>695.5020655703089</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,10 +6002,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330918</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6321,10 +6321,10 @@
         <v>1870.702844468418</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.754138832765</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048581</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048581</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E28" t="n">
-        <v>446.9048623224651</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630047</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>559.0424953278205</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356187</v>
+        <v>559.0424953278205</v>
       </c>
       <c r="D34" t="n">
-        <v>779.614337923283</v>
+        <v>408.9258559154847</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408898</v>
+        <v>261.0127623330916</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429796</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237295</v>
+        <v>961.4835393015903</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093765</v>
+        <v>740.6909601580602</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142539</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,16 +7099,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7123,7 +7123,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1688.385853854706</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188002</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.928827395873</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679661</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556302</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>483.8760050556302</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>483.8760050556302</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G43" t="n">
-        <v>316.6799057705103</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>394.3324990028804</v>
       </c>
       <c r="O2" t="n">
-        <v>354.365095955167</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8058,16 +8058,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>345.1708998087246</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>167.963436331115</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,13 +8228,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>69.42742107138923</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.1700362493012</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>271.7036563660316</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>138.319594652329</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>309.79467703976</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5646269394681</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>385.6468252186367</v>
+        <v>386.1775490124826</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>372.7990404461827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>44.05672894381709</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>288.3031558428141</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>17.03930281964234</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395286</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>219.2069504826782</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728922</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.89988040911739</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890381</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6960474398169367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345294975</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>110.0033420516673</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295201</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>170.2393389614435</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>65.54986409393049</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>101.6825818796754</v>
+        <v>45.44677382459196</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>40.30478226780046</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187153</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405076</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864965</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393078</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9259388694762992</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>46.45968844823108</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1059302.387534049</v>
+        <v>1059420.471962593</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921226.0510281062</v>
+        <v>926809.586093075</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1014422.745297619</v>
+        <v>1008839.21023265</v>
       </c>
     </row>
     <row r="7">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.622137198</v>
+        <v>368528.0361631854</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
@@ -26338,13 +26338,13 @@
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
@@ -26353,7 +26353,7 @@
         <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426414</v>
+        <v>143427.3523991867</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338318983</v>
+        <v>458840.6534729302</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>166521.347105139</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77367.70679951773</v>
+        <v>80399.89743135506</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>43782.40655848942</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>156670.2339537927</v>
+        <v>156827.9060218335</v>
       </c>
       <c r="E4" t="n">
-        <v>6182.061972048512</v>
+        <v>6188.359574389008</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26442,10 +26442,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695025</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
@@ -26454,10 +26454,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695053</v>
+        <v>6287.480531695062</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90290.24696804746</v>
+        <v>90269.01801629362</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>86093.72216214704</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-652699.7095908131</v>
       </c>
       <c r="C6" t="n">
-        <v>139947.7041201717</v>
+        <v>139947.7041201716</v>
       </c>
       <c r="D6" t="n">
-        <v>19299.07126766013</v>
+        <v>19996.60849482808</v>
       </c>
       <c r="E6" t="n">
-        <v>-171473.2587341345</v>
+        <v>-182804.6632901256</v>
       </c>
       <c r="F6" t="n">
-        <v>106855.0207189717</v>
+        <v>128349.5572940028</v>
       </c>
       <c r="G6" t="n">
-        <v>296163.2894894007</v>
+        <v>284961.3153283864</v>
       </c>
       <c r="H6" t="n">
-        <v>296163.2894894007</v>
+        <v>296128.5515639651</v>
       </c>
       <c r="I6" t="n">
-        <v>296163.2894894009</v>
+        <v>296128.5515639652</v>
       </c>
       <c r="J6" t="n">
-        <v>123802.29708912</v>
+        <v>123767.5591636842</v>
       </c>
       <c r="K6" t="n">
-        <v>296163.2894894009</v>
+        <v>296128.5515639653</v>
       </c>
       <c r="L6" t="n">
-        <v>296163.2894894006</v>
+        <v>296128.5515639652</v>
       </c>
       <c r="M6" t="n">
-        <v>218795.5826898831</v>
+        <v>215728.6541326102</v>
       </c>
       <c r="N6" t="n">
-        <v>246323.7153573773</v>
+        <v>252346.1450054757</v>
       </c>
       <c r="O6" t="n">
-        <v>296163.2894894009</v>
+        <v>293105.2535867406</v>
       </c>
       <c r="P6" t="n">
-        <v>296163.2894894007</v>
+        <v>296128.5515639651</v>
       </c>
     </row>
   </sheetData>
@@ -26741,13 +26741,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936557</v>
+        <v>760.9504204673328</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26796,10 +26796,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490086</v>
+        <v>981.388327808647</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4481252555906</v>
+        <v>167.4743201292678</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212945</v>
+        <v>451.2198470272224</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>145.8707812218306</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>310.459329703848</v>
+        <v>322.6268335634863</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506398</v>
+        <v>178.75696251736</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.459329703848</v>
+        <v>322.6268335634863</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.459329703848</v>
+        <v>322.6268335634863</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.7563192647729</v>
+        <v>164.2561371424497</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>59.03762901039609</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.58710497081401</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>131.2706390788545</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.25687943482228</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27822,25 +27822,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>263.7247482946421</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>283.8877503775333</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>342.124720437579</v>
       </c>
       <c r="C8" t="n">
-        <v>333.5817271557342</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.5400460123482</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.7046517124901</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>117.2935332641055</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.6170176401751</v>
+        <v>166.6187736822062</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0114037757905</v>
+        <v>150.0270165858486</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>114.1845078632265</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5150762987069</v>
+        <v>96.65583015166611</v>
       </c>
       <c r="S10" t="n">
-        <v>200.072192455611</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.450898743215172e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.893003170356678e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.93856622168944e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.969624463526998e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185548</v>
+        <v>3.059097167707868</v>
       </c>
       <c r="H8" t="n">
-        <v>31.36907125773275</v>
+        <v>31.32897886878822</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0867686721585</v>
+        <v>117.9358435580577</v>
       </c>
       <c r="J8" t="n">
-        <v>259.9693115255459</v>
+        <v>259.6370482377459</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848602</v>
+        <v>389.1286313468201</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225963</v>
+        <v>482.7484762930599</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051135</v>
+        <v>537.1506955492846</v>
       </c>
       <c r="N8" t="n">
-        <v>546.5408819426733</v>
+        <v>545.8423553770347</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436907</v>
+        <v>515.4234579156395</v>
       </c>
       <c r="P8" t="n">
-        <v>440.4649489272349</v>
+        <v>439.9019965878514</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314649</v>
+        <v>330.3480792693133</v>
       </c>
       <c r="R8" t="n">
-        <v>192.4069251696381</v>
+        <v>192.1610124610295</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830325</v>
+        <v>69.70917670914312</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40833486446724</v>
+        <v>13.3911978516412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450409569748438</v>
+        <v>0.2447277734166294</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465599</v>
+        <v>1.636761281759924</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204934</v>
+        <v>15.80766816857611</v>
       </c>
       <c r="I9" t="n">
-        <v>56.42552048028489</v>
+        <v>56.35340377989211</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765372</v>
+        <v>154.6380472385549</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347323</v>
+        <v>264.3010531164697</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454145</v>
+        <v>355.3853826908992</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485423</v>
+        <v>414.7179791546964</v>
       </c>
       <c r="N9" t="n">
-        <v>426.2391005045113</v>
+        <v>425.6943300310601</v>
       </c>
       <c r="O9" t="n">
-        <v>389.9255043941419</v>
+        <v>389.427145840485</v>
       </c>
       <c r="P9" t="n">
-        <v>312.9495937160056</v>
+        <v>312.5496170406296</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762053</v>
+        <v>208.9311418611439</v>
       </c>
       <c r="R9" t="n">
-        <v>101.752823938715</v>
+        <v>101.6227750201469</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178424</v>
+        <v>30.4021229309354</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609145</v>
+        <v>6.597296569900742</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1078194658858947</v>
+        <v>0.1076816632736792</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283641</v>
+        <v>1.372205676252567</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164911</v>
+        <v>12.20015592159102</v>
       </c>
       <c r="I10" t="n">
-        <v>41.3187760371117</v>
+        <v>41.26596706403176</v>
       </c>
       <c r="J10" t="n">
-        <v>97.13909348265344</v>
+        <v>97.0149413110565</v>
       </c>
       <c r="K10" t="n">
-        <v>159.6293705424085</v>
+        <v>159.4253503864346</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255516</v>
+        <v>204.0095602675863</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3747446214984</v>
+        <v>215.0994770511183</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806232</v>
+        <v>209.9848922578135</v>
       </c>
       <c r="O10" t="n">
-        <v>194.2032435988551</v>
+        <v>193.955035039772</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458687</v>
+        <v>165.9620392442195</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.050558064642</v>
+        <v>114.9035134905672</v>
       </c>
       <c r="R10" t="n">
-        <v>61.77831507846262</v>
+        <v>61.69935704313814</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136127</v>
+        <v>23.91380255796519</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393739</v>
+        <v>5.863060616715513</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07494336645183507</v>
+        <v>0.07484758234104921</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>133.9020531506294</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>660.6327957845325</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>620.3452877431805</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>497.8817840205467</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>319.6032075114966</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>560.8480255816978</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>506.5665344352332</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>550.5977692975237</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.8708611242914</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>506.5665344352332</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34451,25 +34451,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>590.6296837422565</v>
       </c>
       <c r="O2" t="n">
-        <v>526.2530003157322</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
         <v>35.33749497130819</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>483.7866553801326</v>
       </c>
       <c r="M3" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>368.626811737847</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
@@ -34939,7 +34939,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34948,13 +34948,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>104.7649160426974</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>472.2935843995645</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>381.4911589188587</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>248.0200221709334</v>
+        <v>78.59114371105966</v>
       </c>
       <c r="K8" t="n">
-        <v>307.8563514922087</v>
+        <v>493.1841928730043</v>
       </c>
       <c r="L8" t="n">
-        <v>247.5998452526091</v>
+        <v>246.9820613230726</v>
       </c>
       <c r="M8" t="n">
-        <v>307.4918659778408</v>
+        <v>616.5991393617719</v>
       </c>
       <c r="N8" t="n">
-        <v>317.1278183460824</v>
+        <v>316.4292917804437</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9848453220039</v>
+        <v>285.3252464939527</v>
       </c>
       <c r="P8" t="n">
-        <v>531.0306613434479</v>
+        <v>208.6690008325819</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.7801338169201</v>
+        <v>320.3573800547685</v>
       </c>
       <c r="R8" t="n">
-        <v>42.53780722848845</v>
+        <v>42.29189451987986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>154.0893496502793</v>
+        <v>27.8004205718882</v>
       </c>
       <c r="K9" t="n">
-        <v>391.2630830729519</v>
+        <v>126.4596141421108</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8504244050084</v>
+        <v>587.6713482144842</v>
       </c>
       <c r="M9" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="N9" t="n">
-        <v>294.897388421178</v>
+        <v>294.3526179477268</v>
       </c>
       <c r="O9" t="n">
-        <v>247.3292599496975</v>
+        <v>619.6299418422233</v>
       </c>
       <c r="P9" t="n">
-        <v>178.9751863016753</v>
+        <v>178.5752096262994</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.2940293260328</v>
+        <v>68.94936777512243</v>
       </c>
       <c r="R9" t="n">
-        <v>1.594989786071906</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.779913365980661</v>
+        <v>3.655761194383729</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165256</v>
+        <v>137.1558585605517</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858677</v>
+        <v>231.5995855279024</v>
       </c>
       <c r="M10" t="n">
-        <v>254.958621583339</v>
+        <v>254.6833540129589</v>
       </c>
       <c r="N10" t="n">
-        <v>254.3857869598518</v>
+        <v>254.1170646370421</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128948</v>
+        <v>218.5401629538117</v>
       </c>
       <c r="P10" t="n">
-        <v>163.4529838107622</v>
+        <v>163.240598509113</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.88851481294762</v>
+        <v>28.74147023887286</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.064426483962718</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>477.7490432987361</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>179.6214334254751</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>418.2517811372534</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132149</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>416.6233618831934</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>364.4325005132149</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
